--- a/nba2k_editor/Offsets/LeagueData.xlsx
+++ b/nba2k_editor/Offsets/LeagueData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BasePointers" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GameInfo" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="BasePointers" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="GameInfo" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -18,16 +18,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -38,7 +35,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -46,21 +43,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -426,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -435,32 +423,32 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>Pointer</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>2K22_Offsets.json</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>2K23_Offsets.json</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>2K24_Offsets.json</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>2k25_offsets.json</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>2k26_offsets.json</t>
         </is>
@@ -485,40 +473,168 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Player</t>
+          <t>HallOfFame</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>132504776</t>
-        </is>
-      </c>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
-          <t>130958936</t>
+          <t>130991424</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Team</t>
+          <t>History</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>130991424</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Jersey</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>130991400</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>NBAHistory</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>130991424</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Player</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>132504968</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>130990776</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Stadium</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>130991160</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Staff</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>130991496</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Team</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
         <is>
           <t>132505568</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>130959536</t>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>130991376</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>TeamHistory</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>130991376</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>career_stats</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>130990680</t>
         </is>
       </c>
     </row>
@@ -533,7 +649,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -542,32 +658,32 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>Field</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>2K22_Offsets.json</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>2K23_Offsets.json</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>2K24_Offsets.json</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>2k25_offsets.json</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>2k26_offsets.json</t>
         </is>
@@ -576,84 +692,194 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>executable</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>NBA2K22.exe</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>NBA2K23.exe</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>NBA2K24.exe</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>NBA2K25.exe</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NBA2K26.exe</t>
-        </is>
+          <t>career_statsSize</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>playerSize</t>
+          <t>coachSize</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
-      <c r="E3" t="n">
-        <v>1096</v>
-      </c>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="n">
-        <v>1176</v>
+        <v>432</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>teamSize</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="n">
-        <v>5664</v>
-      </c>
-      <c r="F4" t="n">
-        <v>5672</v>
+          <t>executable</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>NBA2K22.exe</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>NBA2K23.exe</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>NBA2K24.exe</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>NBA2K25.exe</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NBA2K26.exe</t>
+        </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>version</t>
+          <t>hall_of_fameSize</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>September</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>December 17th, 2025</t>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="n">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>historySize</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="n">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>jerseySize</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="n">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>playerSize</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="n">
+        <v>1096</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>stadiumSize</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="n">
+        <v>4792</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>staffSize</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="n">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>teamSize</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="n">
+        <v>5664</v>
+      </c>
+      <c r="F11" t="n">
+        <v>5672</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>version</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2K22</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2K23</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2K24</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2K25</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2026-02-21</t>
         </is>
       </c>
     </row>

--- a/nba2k_editor/Offsets/LeagueData.xlsx
+++ b/nba2k_editor/Offsets/LeagueData.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,14 +482,14 @@
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
-          <t>130991424</t>
+          <t>5348811252</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>History</t>
+          <t>NBAHistory</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
@@ -498,30 +498,34 @@
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
-          <t>130991424</t>
+          <t>5347512576</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Jersey</t>
+          <t>Player</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>132504968</t>
+        </is>
+      </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>130991400</t>
+          <t>131015096</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>NBAHistory</t>
+          <t>Stadium</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
@@ -530,50 +534,50 @@
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
-          <t>130991424</t>
+          <t>130992024</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Player</t>
+          <t>Staff</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>132504968</t>
-        </is>
-      </c>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
-          <t>130990776</t>
+          <t>130991496</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Stadium</t>
+          <t>Team</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>132505568</t>
+        </is>
+      </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>130991160</t>
+          <t>131015696</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Staff</t>
+          <t>TeamHistory</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
@@ -582,59 +586,7 @@
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
-          <t>130991496</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Team</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>132505568</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>130991376</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>TeamHistory</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>130991376</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>career_stats</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>130990680</t>
+          <t>5336537040</t>
         </is>
       </c>
     </row>
@@ -649,7 +601,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -692,67 +644,69 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>career_statsSize</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="n">
-        <v>64</v>
+          <t>executable</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>NBA2K22.exe</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>NBA2K23.exe</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>NBA2K24.exe</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>NBA2K25.exe</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NBA2K26.exe</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>coachSize</t>
+          <t>playerSize</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>1096</v>
+      </c>
       <c r="F3" t="n">
-        <v>432</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>executable</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>NBA2K22.exe</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>NBA2K23.exe</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>NBA2K24.exe</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>NBA2K25.exe</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NBA2K26.exe</t>
-        </is>
+          <t>stadiumSize</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="n">
+        <v>4792</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>hall_of_fameSize</t>
+          <t>staffSize</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
@@ -760,126 +714,54 @@
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
-        <v>108</v>
+        <v>432</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>historySize</t>
+          <t>teamSize</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>5664</v>
+      </c>
       <c r="F6" t="n">
-        <v>168</v>
+        <v>5672</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>jerseySize</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="n">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>playerSize</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="n">
-        <v>1096</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1176</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>stadiumSize</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="n">
-        <v>4792</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>staffSize</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="n">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>teamSize</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="n">
-        <v>5664</v>
-      </c>
-      <c r="F11" t="n">
-        <v>5672</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
           <t>version</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B7" t="inlineStr">
         <is>
           <t>2K22</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>2K23</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>2K24</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2K25</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2026-02-21</t>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
         </is>
       </c>
     </row>
